--- a/state_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
+++ b/state_results/Rivers/WhangaehuatusWinstonePulp_b02abefc21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.654563949772333</v>
+        <v>0.654649919945743</v>
       </c>
       <c r="H2" t="n">
         <v>1.9</v>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.00809</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0182256118883067</v>
+        <v>0.0182485798859967</v>
       </c>
       <c r="H3" t="n">
         <v>0.08599999999999999</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.00809</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0182256118883067</v>
+        <v>0.0182485798859967</v>
       </c>
       <c r="H4" t="n">
         <v>0.08599999999999999</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2197</v>
+        <v>0.22118</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4570513889504</v>
+        <v>4.45384053177679</v>
       </c>
       <c r="H5" t="n">
         <v>195</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.23902</v>
+        <v>0.24044</v>
       </c>
       <c r="M5" t="n">
-        <v>1.70215</v>
+        <v>1.66951</v>
       </c>
       <c r="N5" t="n">
         <v>3.88</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.2197</v>
+        <v>0.22118</v>
       </c>
       <c r="G6" t="n">
-        <v>4.4570513889504</v>
+        <v>4.45384053177679</v>
       </c>
       <c r="H6" t="n">
         <v>195</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.23902</v>
+        <v>0.24044</v>
       </c>
       <c r="M6" t="n">
-        <v>1.70215</v>
+        <v>1.66951</v>
       </c>
       <c r="N6" t="n">
         <v>3.88</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.2197</v>
+        <v>0.22118</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4570513889504</v>
+        <v>4.45384053177679</v>
       </c>
       <c r="H7" t="n">
         <v>195</v>
@@ -998,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.23902</v>
+        <v>0.24044</v>
       </c>
       <c r="M7" t="n">
-        <v>1.70215</v>
+        <v>1.66951</v>
       </c>
       <c r="N7" t="n">
         <v>3.88</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.2197</v>
+        <v>0.22118</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4570513889504</v>
+        <v>4.45384053177679</v>
       </c>
       <c r="H8" t="n">
         <v>195</v>
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.23902</v>
+        <v>0.24044</v>
       </c>
       <c r="M8" t="n">
-        <v>1.70215</v>
+        <v>1.66951</v>
       </c>
       <c r="N8" t="n">
         <v>3.88</v>
@@ -1153,7 +1153,7 @@
         <v>0.01993</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0253352870970244</v>
+        <v>0.0253496609363495</v>
       </c>
       <c r="H9" t="n">
         <v>0.10979020979021</v>
@@ -1234,7 +1234,7 @@
         <v>0.01993</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0253352870970244</v>
+        <v>0.0253496609363495</v>
       </c>
       <c r="H10" t="n">
         <v>0.10979020979021</v>
@@ -1315,7 +1315,7 @@
         <v>0.037</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0389004909502065</v>
+        <v>0.0388886024057941</v>
       </c>
       <c r="H11" t="n">
         <v>0.12</v>
@@ -1396,7 +1396,7 @@
         <v>0.037</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0389004909502065</v>
+        <v>0.0388886024057941</v>
       </c>
       <c r="H12" t="n">
         <v>0.12</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.102</v>
+        <v>0.10225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.113637931034483</v>
+        <v>0.113648275862069</v>
       </c>
       <c r="H13" t="n">
         <v>0.322</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.102</v>
+        <v>0.10225</v>
       </c>
       <c r="G14" t="n">
-        <v>0.113637931034483</v>
+        <v>0.113648275862069</v>
       </c>
       <c r="H14" t="n">
         <v>0.322</v>
@@ -1627,7 +1627,7 @@
         <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.117448454166004</v>
+        <v>0.117380046254369</v>
       </c>
       <c r="H15" t="n">
         <v>0.713</v>
@@ -1704,7 +1704,7 @@
         <v>0.08</v>
       </c>
       <c r="G16" t="n">
-        <v>0.117448454166004</v>
+        <v>0.117380046254369</v>
       </c>
       <c r="H16" t="n">
         <v>0.713</v>
@@ -1781,7 +1781,7 @@
         <v>0.031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0460149491968793</v>
+        <v>0.046017010205706</v>
       </c>
       <c r="H17" t="n">
         <v>0.231</v>
@@ -1858,7 +1858,7 @@
         <v>0.031</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0460149491968793</v>
+        <v>0.046017010205706</v>
       </c>
       <c r="H18" t="n">
         <v>0.231</v>
@@ -2020,7 +2020,7 @@
         <v>0.01</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0355654920395536</v>
+        <v>0.0355782034525188</v>
       </c>
       <c r="H20" t="n">
         <v>0.359</v>
@@ -2101,7 +2101,7 @@
         <v>0.01</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0355654920395536</v>
+        <v>0.0355782034525188</v>
       </c>
       <c r="H21" t="n">
         <v>0.359</v>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.3004</v>
+        <v>0.30158</v>
       </c>
       <c r="G22" t="n">
-        <v>1.4664134910339</v>
+        <v>1.46358587740806</v>
       </c>
       <c r="H22" t="n">
         <v>12</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.38051</v>
+        <v>0.38128</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3004</v>
+        <v>0.30158</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4664134910339</v>
+        <v>1.46358587740806</v>
       </c>
       <c r="H23" t="n">
         <v>12</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.38051</v>
+        <v>0.38128</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.3004</v>
+        <v>0.30158</v>
       </c>
       <c r="G24" t="n">
-        <v>1.4664134910339</v>
+        <v>1.46358587740806</v>
       </c>
       <c r="H24" t="n">
         <v>12</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.38051</v>
+        <v>0.38128</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.3004</v>
+        <v>0.30158</v>
       </c>
       <c r="G25" t="n">
-        <v>1.4664134910339</v>
+        <v>1.46358587740806</v>
       </c>
       <c r="H25" t="n">
         <v>12</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.38051</v>
+        <v>0.38128</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
@@ -2522,7 +2522,7 @@
         <v>0.02273</v>
       </c>
       <c r="G26" t="n">
-        <v>0.029461255101523</v>
+        <v>0.0294706105709049</v>
       </c>
       <c r="H26" t="n">
         <v>0.154895104895105</v>
@@ -2603,7 +2603,7 @@
         <v>0.02273</v>
       </c>
       <c r="G27" t="n">
-        <v>0.029461255101523</v>
+        <v>0.0294706105709049</v>
       </c>
       <c r="H27" t="n">
         <v>0.154895104895105</v>
@@ -2684,7 +2684,7 @@
         <v>0.036</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0345799825930215</v>
+        <v>0.0345705202821626</v>
       </c>
       <c r="H28" t="n">
         <v>0.054</v>
@@ -2765,7 +2765,7 @@
         <v>0.036</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0345799825930215</v>
+        <v>0.0345705202821626</v>
       </c>
       <c r="H29" t="n">
         <v>0.054</v>
@@ -2842,7 +2842,7 @@
         <v>0.107</v>
       </c>
       <c r="G30" t="n">
-        <v>0.122491525423729</v>
+        <v>0.122528813559322</v>
       </c>
       <c r="H30" t="n">
         <v>0.481</v>
@@ -2919,7 +2919,7 @@
         <v>0.107</v>
       </c>
       <c r="G31" t="n">
-        <v>0.122491525423729</v>
+        <v>0.122528813559322</v>
       </c>
       <c r="H31" t="n">
         <v>0.481</v>
@@ -2996,7 +2996,7 @@
         <v>0.08</v>
       </c>
       <c r="G32" t="n">
-        <v>0.124634356107012</v>
+        <v>0.124580218489929</v>
       </c>
       <c r="H32" t="n">
         <v>0.713</v>
@@ -3073,7 +3073,7 @@
         <v>0.08</v>
       </c>
       <c r="G33" t="n">
-        <v>0.124634356107012</v>
+        <v>0.124580218489929</v>
       </c>
       <c r="H33" t="n">
         <v>0.713</v>
@@ -3150,7 +3150,7 @@
         <v>0.035</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0607602051563071</v>
+        <v>0.0607621963004278</v>
       </c>
       <c r="H34" t="n">
         <v>0.531</v>
@@ -3227,7 +3227,7 @@
         <v>0.035</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0607602051563071</v>
+        <v>0.0607621963004278</v>
       </c>
       <c r="H35" t="n">
         <v>0.531</v>
@@ -3308,7 +3308,7 @@
         <v>0.5</v>
       </c>
       <c r="G36" t="n">
-        <v>0.601405405345378</v>
+        <v>0.601363857792952</v>
       </c>
       <c r="H36" t="n">
         <v>1.9</v>
@@ -3389,7 +3389,7 @@
         <v>0.023</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0465672817590769</v>
+        <v>0.0465662950520439</v>
       </c>
       <c r="H37" t="n">
         <v>0.359</v>
@@ -3470,7 +3470,7 @@
         <v>0.023</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0465672817590769</v>
+        <v>0.0465662950520439</v>
       </c>
       <c r="H38" t="n">
         <v>0.359</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1.59030339370844</v>
+        <v>1.58727689720388</v>
       </c>
       <c r="H39" t="n">
         <v>16</v>
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1.59030339370844</v>
+        <v>1.58727689720388</v>
       </c>
       <c r="H40" t="n">
         <v>16</v>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1.59030339370844</v>
+        <v>1.58727689720388</v>
       </c>
       <c r="H41" t="n">
         <v>16</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1.59030339370844</v>
+        <v>1.58727689720388</v>
       </c>
       <c r="H42" t="n">
         <v>16</v>
@@ -3891,7 +3891,7 @@
         <v>0.02273</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0300091110909507</v>
+        <v>0.0300164830264129</v>
       </c>
       <c r="H43" t="n">
         <v>0.154895104895105</v>
@@ -3972,7 +3972,7 @@
         <v>0.02273</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0300091110909507</v>
+        <v>0.0300164830264129</v>
       </c>
       <c r="H44" t="n">
         <v>0.154895104895105</v>
@@ -4053,7 +4053,7 @@
         <v>0.036</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0347071041874247</v>
+        <v>0.0346992456580673</v>
       </c>
       <c r="H45" t="n">
         <v>0.0568</v>
@@ -4134,7 +4134,7 @@
         <v>0.036</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0347071041874247</v>
+        <v>0.0346992456580673</v>
       </c>
       <c r="H46" t="n">
         <v>0.0568</v>
@@ -4208,16 +4208,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.102</v>
+        <v>0.1019</v>
       </c>
       <c r="G47" t="n">
-        <v>0.122016949152542</v>
+        <v>0.122050847457627</v>
       </c>
       <c r="H47" t="n">
         <v>0.481</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2771</v>
+        <v>0.27728</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4285,16 +4285,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.102</v>
+        <v>0.1019</v>
       </c>
       <c r="G48" t="n">
-        <v>0.122016949152542</v>
+        <v>0.122050847457627</v>
       </c>
       <c r="H48" t="n">
         <v>0.481</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2771</v>
+        <v>0.27728</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4365,7 +4365,7 @@
         <v>0.089</v>
       </c>
       <c r="G49" t="n">
-        <v>0.122152203767278</v>
+        <v>0.122115596587965</v>
       </c>
       <c r="H49" t="n">
         <v>0.713</v>
@@ -4442,7 +4442,7 @@
         <v>0.089</v>
       </c>
       <c r="G50" t="n">
-        <v>0.122152203767278</v>
+        <v>0.122115596587965</v>
       </c>
       <c r="H50" t="n">
         <v>0.713</v>
@@ -4519,7 +4519,7 @@
         <v>0.037</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0715059678681715</v>
+        <v>0.0715079590122923</v>
       </c>
       <c r="H51" t="n">
         <v>0.531</v>
@@ -4596,7 +4596,7 @@
         <v>0.037</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0715059678681715</v>
+        <v>0.0715079590122923</v>
       </c>
       <c r="H52" t="n">
         <v>0.531</v>
@@ -4677,7 +4677,7 @@
         <v>0.475</v>
       </c>
       <c r="G53" t="n">
-        <v>0.53715980454604</v>
+        <v>0.537085470530284</v>
       </c>
       <c r="H53" t="n">
         <v>1.7</v>
@@ -4758,7 +4758,7 @@
         <v>0.036</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0575485999210225</v>
+        <v>0.0575427391604034</v>
       </c>
       <c r="H54" t="n">
         <v>0.359</v>
@@ -4839,7 +4839,7 @@
         <v>0.036</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0575485999210225</v>
+        <v>0.0575427391604034</v>
       </c>
       <c r="H55" t="n">
         <v>0.359</v>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1.65473427871561</v>
+        <v>1.6493989966269</v>
       </c>
       <c r="H56" t="n">
         <v>16</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>1.65473427871561</v>
+        <v>1.6493989966269</v>
       </c>
       <c r="H57" t="n">
         <v>16</v>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1.65473427871561</v>
+        <v>1.6493989966269</v>
       </c>
       <c r="H58" t="n">
         <v>16</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1.65473427871561</v>
+        <v>1.6493989966269</v>
       </c>
       <c r="H59" t="n">
         <v>16</v>
@@ -5260,7 +5260,7 @@
         <v>0.02185</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0286104737086029</v>
+        <v>0.0286141466547679</v>
       </c>
       <c r="H60" t="n">
         <v>0.154895104895105</v>
@@ -5341,7 +5341,7 @@
         <v>0.02185</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0286104737086029</v>
+        <v>0.0286141466547679</v>
       </c>
       <c r="H61" t="n">
         <v>0.154895104895105</v>
@@ -5577,27 +5577,27 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1005</v>
+        <v>0.1006</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1198</v>
+        <v>0.119811666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0.481</v>
       </c>
       <c r="I64" t="n">
-        <v>0.249</v>
+        <v>0.2492</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.176</v>
+        <v>0.17595</v>
       </c>
       <c r="M64" t="n">
         <v>0.1866</v>
       </c>
       <c r="N64" t="n">
-        <v>0.2176</v>
+        <v>0.21772</v>
       </c>
       <c r="O64" t="n">
         <v>1822057</v>
@@ -5654,27 +5654,27 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1005</v>
+        <v>0.1006</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1198</v>
+        <v>0.119811666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0.481</v>
       </c>
       <c r="I65" t="n">
-        <v>0.249</v>
+        <v>0.2492</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.176</v>
+        <v>0.17595</v>
       </c>
       <c r="M65" t="n">
         <v>0.1866</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2176</v>
+        <v>0.21772</v>
       </c>
       <c r="O65" t="n">
         <v>1822057</v>
@@ -5734,7 +5734,7 @@
         <v>0.09</v>
       </c>
       <c r="G66" t="n">
-        <v>0.113007279944915</v>
+        <v>0.112994970026754</v>
       </c>
       <c r="H66" t="n">
         <v>0.5</v>
@@ -5811,7 +5811,7 @@
         <v>0.09</v>
       </c>
       <c r="G67" t="n">
-        <v>0.113007279944915</v>
+        <v>0.112994970026754</v>
       </c>
       <c r="H67" t="n">
         <v>0.5</v>
@@ -5888,7 +5888,7 @@
         <v>0.052</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08329753507036861</v>
+        <v>0.0832994930287541</v>
       </c>
       <c r="H68" t="n">
         <v>0.531</v>
@@ -5965,7 +5965,7 @@
         <v>0.052</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08329753507036861</v>
+        <v>0.0832994930287541</v>
       </c>
       <c r="H69" t="n">
         <v>0.531</v>
@@ -6046,7 +6046,7 @@
         <v>0.4</v>
       </c>
       <c r="G70" t="n">
-        <v>0.466961400000505</v>
+        <v>0.466897268692794</v>
       </c>
       <c r="H70" t="n">
         <v>1.7</v>
@@ -6127,7 +6127,7 @@
         <v>0.037</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0739533309918924</v>
+        <v>0.07394501043296089</v>
       </c>
       <c r="H71" t="n">
         <v>0.36</v>
@@ -6208,7 +6208,7 @@
         <v>0.037</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0739533309918924</v>
+        <v>0.07394501043296089</v>
       </c>
       <c r="H72" t="n">
         <v>0.36</v>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.69249</v>
+        <v>0.67109</v>
       </c>
       <c r="G73" t="n">
-        <v>1.36290618714468</v>
+        <v>1.35186233536072</v>
       </c>
       <c r="H73" t="n">
         <v>16</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.67535</v>
+        <v>0.6568000000000001</v>
       </c>
       <c r="M73" t="n">
         <v>3.28</v>
@@ -6371,10 +6371,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.69249</v>
+        <v>0.67109</v>
       </c>
       <c r="G74" t="n">
-        <v>1.36290618714468</v>
+        <v>1.35186233536072</v>
       </c>
       <c r="H74" t="n">
         <v>16</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.67535</v>
+        <v>0.6568000000000001</v>
       </c>
       <c r="M74" t="n">
         <v>3.28</v>
@@ -6456,10 +6456,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.69249</v>
+        <v>0.67109</v>
       </c>
       <c r="G75" t="n">
-        <v>1.36290618714468</v>
+        <v>1.35186233536072</v>
       </c>
       <c r="H75" t="n">
         <v>16</v>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.67535</v>
+        <v>0.6568000000000001</v>
       </c>
       <c r="M75" t="n">
         <v>3.28</v>
@@ -6541,10 +6541,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.69249</v>
+        <v>0.67109</v>
       </c>
       <c r="G76" t="n">
-        <v>1.36290618714468</v>
+        <v>1.35186233536072</v>
       </c>
       <c r="H76" t="n">
         <v>16</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.67535</v>
+        <v>0.6568000000000001</v>
       </c>
       <c r="M76" t="n">
         <v>3.28</v>
@@ -6629,7 +6629,7 @@
         <v>0.02308</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0314381653943629</v>
+        <v>0.0314435789208487</v>
       </c>
       <c r="H77" t="n">
         <v>0.171328671328671</v>
@@ -6710,7 +6710,7 @@
         <v>0.02308</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0314381653943629</v>
+        <v>0.0314435789208487</v>
       </c>
       <c r="H78" t="n">
         <v>0.171328671328671</v>
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1005</v>
+        <v>0.1006</v>
       </c>
       <c r="G81" t="n">
-        <v>0.128189655172414</v>
+        <v>0.128201724137931</v>
       </c>
       <c r="H81" t="n">
         <v>0.52</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2772</v>
+        <v>0.27736</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -7023,16 +7023,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.1005</v>
+        <v>0.1006</v>
       </c>
       <c r="G82" t="n">
-        <v>0.128189655172414</v>
+        <v>0.128201724137931</v>
       </c>
       <c r="H82" t="n">
         <v>0.52</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2772</v>
+        <v>0.27736</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>0.119876073229364</v>
+        <v>0.119862822464727</v>
       </c>
       <c r="H83" t="n">
         <v>0.5600000000000001</v>
@@ -7180,7 +7180,7 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>0.119876073229364</v>
+        <v>0.119862822464727</v>
       </c>
       <c r="H84" t="n">
         <v>0.5600000000000001</v>
@@ -7257,7 +7257,7 @@
         <v>0.057</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0959974500727951</v>
+        <v>0.0959994755469869</v>
       </c>
       <c r="H85" t="n">
         <v>0.531</v>
@@ -7334,7 +7334,7 @@
         <v>0.057</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0959974500727951</v>
+        <v>0.0959994755469869</v>
       </c>
       <c r="H86" t="n">
         <v>0.531</v>
@@ -7415,7 +7415,7 @@
         <v>0.375</v>
       </c>
       <c r="G87" t="n">
-        <v>0.453839846429031</v>
+        <v>0.453781441130937</v>
       </c>
       <c r="H87" t="n">
         <v>1.3</v>
@@ -7496,7 +7496,7 @@
         <v>0.058</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09263974355315099</v>
+        <v>0.0926376184907043</v>
       </c>
       <c r="H88" t="n">
         <v>0.36</v>
@@ -7577,7 +7577,7 @@
         <v>0.058</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09263974355315099</v>
+        <v>0.0926376184907043</v>
       </c>
       <c r="H89" t="n">
         <v>0.36</v>
@@ -7655,10 +7655,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.53749</v>
+        <v>0.46603</v>
       </c>
       <c r="G90" t="n">
-        <v>1.39518783063186</v>
+        <v>1.37424877926442</v>
       </c>
       <c r="H90" t="n">
         <v>16</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.7504999999999999</v>
+        <v>0.71844</v>
       </c>
       <c r="M90" t="n">
         <v>2.92</v>
@@ -7740,10 +7740,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.53749</v>
+        <v>0.46603</v>
       </c>
       <c r="G91" t="n">
-        <v>1.39518783063186</v>
+        <v>1.37424877926442</v>
       </c>
       <c r="H91" t="n">
         <v>16</v>
@@ -7758,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.7504999999999999</v>
+        <v>0.71844</v>
       </c>
       <c r="M91" t="n">
         <v>2.92</v>
@@ -7825,10 +7825,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.53749</v>
+        <v>0.46603</v>
       </c>
       <c r="G92" t="n">
-        <v>1.39518783063186</v>
+        <v>1.37424877926442</v>
       </c>
       <c r="H92" t="n">
         <v>16</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.7504999999999999</v>
+        <v>0.71844</v>
       </c>
       <c r="M92" t="n">
         <v>2.92</v>
@@ -7910,10 +7910,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.53749</v>
+        <v>0.46603</v>
       </c>
       <c r="G93" t="n">
-        <v>1.39518783063186</v>
+        <v>1.37424877926442</v>
       </c>
       <c r="H93" t="n">
         <v>16</v>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.7504999999999999</v>
+        <v>0.71844</v>
       </c>
       <c r="M93" t="n">
         <v>2.92</v>
@@ -7998,7 +7998,7 @@
         <v>0.0236</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0345396068767099</v>
+        <v>0.0345431064058843</v>
       </c>
       <c r="H94" t="n">
         <v>0.171328671328671</v>
@@ -8079,7 +8079,7 @@
         <v>0.0236</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0345396068767099</v>
+        <v>0.0345431064058843</v>
       </c>
       <c r="H95" t="n">
         <v>0.171328671328671</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1005</v>
+        <v>0.1006</v>
       </c>
       <c r="G98" t="n">
-        <v>0.139344827586207</v>
+        <v>0.139356896551724</v>
       </c>
       <c r="H98" t="n">
         <v>0.52</v>
@@ -8329,13 +8329,13 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.1775</v>
+        <v>0.17745</v>
       </c>
       <c r="M98" t="n">
         <v>0.2264</v>
       </c>
       <c r="N98" t="n">
-        <v>0.27772</v>
+        <v>0.27778</v>
       </c>
       <c r="O98" t="n">
         <v>1822057</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.1005</v>
+        <v>0.1006</v>
       </c>
       <c r="G99" t="n">
-        <v>0.139344827586207</v>
+        <v>0.139356896551724</v>
       </c>
       <c r="H99" t="n">
         <v>0.52</v>
@@ -8406,13 +8406,13 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.1775</v>
+        <v>0.17745</v>
       </c>
       <c r="M99" t="n">
         <v>0.2264</v>
       </c>
       <c r="N99" t="n">
-        <v>0.27772</v>
+        <v>0.27778</v>
       </c>
       <c r="O99" t="n">
         <v>1822057</v>
@@ -8472,7 +8472,7 @@
         <v>0.09</v>
       </c>
       <c r="G100" t="n">
-        <v>0.131772624953502</v>
+        <v>0.131759374188865</v>
       </c>
       <c r="H100" t="n">
         <v>0.5600000000000001</v>
@@ -8549,7 +8549,7 @@
         <v>0.09</v>
       </c>
       <c r="G101" t="n">
-        <v>0.131772624953502</v>
+        <v>0.131759374188865</v>
       </c>
       <c r="H101" t="n">
         <v>0.5600000000000001</v>
@@ -8784,7 +8784,7 @@
         <v>0.345</v>
       </c>
       <c r="G104" t="n">
-        <v>0.451571989286174</v>
+        <v>0.45151358398808</v>
       </c>
       <c r="H104" t="n">
         <v>1.3</v>
@@ -9024,10 +9024,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.5682199999999999</v>
+        <v>0.49034</v>
       </c>
       <c r="G107" t="n">
-        <v>0.988715481773484</v>
+        <v>0.94823582863709</v>
       </c>
       <c r="H107" t="n">
         <v>16</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -9109,10 +9109,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.5682199999999999</v>
+        <v>0.49034</v>
       </c>
       <c r="G108" t="n">
-        <v>0.988715481773484</v>
+        <v>0.94823582863709</v>
       </c>
       <c r="H108" t="n">
         <v>16</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.5682199999999999</v>
+        <v>0.49034</v>
       </c>
       <c r="G109" t="n">
-        <v>0.988715481773484</v>
+        <v>0.94823582863709</v>
       </c>
       <c r="H109" t="n">
         <v>16</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
@@ -9279,10 +9279,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.5682199999999999</v>
+        <v>0.49034</v>
       </c>
       <c r="G110" t="n">
-        <v>0.988715481773484</v>
+        <v>0.94823582863709</v>
       </c>
       <c r="H110" t="n">
         <v>16</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
@@ -9367,7 +9367,7 @@
         <v>0.02448</v>
       </c>
       <c r="G111" t="n">
-        <v>0.035819643920589</v>
+        <v>0.0358233343331729</v>
       </c>
       <c r="H111" t="n">
         <v>0.171328671328671</v>
@@ -9448,7 +9448,7 @@
         <v>0.02448</v>
       </c>
       <c r="G112" t="n">
-        <v>0.035819643920589</v>
+        <v>0.0358233343331729</v>
       </c>
       <c r="H112" t="n">
         <v>0.171328671328671</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.111</v>
+        <v>0.11095</v>
       </c>
       <c r="G115" t="n">
-        <v>0.150189655172414</v>
+        <v>0.150177586206897</v>
       </c>
       <c r="H115" t="n">
         <v>0.52</v>
@@ -9698,7 +9698,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.1775</v>
+        <v>0.17745</v>
       </c>
       <c r="M115" t="n">
         <v>0.2364</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.111</v>
+        <v>0.11095</v>
       </c>
       <c r="G116" t="n">
-        <v>0.150189655172414</v>
+        <v>0.150177586206897</v>
       </c>
       <c r="H116" t="n">
         <v>0.52</v>
@@ -9775,7 +9775,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.1775</v>
+        <v>0.17745</v>
       </c>
       <c r="M116" t="n">
         <v>0.2364</v>
@@ -9841,7 +9841,7 @@
         <v>0.1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.134220900815571</v>
+        <v>0.134207650050934</v>
       </c>
       <c r="H117" t="n">
         <v>0.5600000000000001</v>
@@ -9918,7 +9918,7 @@
         <v>0.1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.134220900815571</v>
+        <v>0.134207650050934</v>
       </c>
       <c r="H118" t="n">
         <v>0.5600000000000001</v>
@@ -10153,7 +10153,7 @@
         <v>0.35</v>
       </c>
       <c r="G121" t="n">
-        <v>0.477822192573746</v>
+        <v>0.477792186352861</v>
       </c>
       <c r="H121" t="n">
         <v>1.4</v>
@@ -10393,16 +10393,16 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.56035</v>
+        <v>0.48414</v>
       </c>
       <c r="G124" t="n">
-        <v>0.757789906638563</v>
+        <v>0.689255522683565</v>
       </c>
       <c r="H124" t="n">
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>2.95014</v>
+        <v>2.95</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -10411,10 +10411,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M124" t="n">
-        <v>0.9404400000000001</v>
+        <v>0.76938</v>
       </c>
       <c r="N124" t="n">
         <v>1</v>
@@ -10478,16 +10478,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.56035</v>
+        <v>0.48414</v>
       </c>
       <c r="G125" t="n">
-        <v>0.757789906638563</v>
+        <v>0.689255522683565</v>
       </c>
       <c r="H125" t="n">
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>2.95014</v>
+        <v>2.95</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -10496,10 +10496,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M125" t="n">
-        <v>0.9404400000000001</v>
+        <v>0.76938</v>
       </c>
       <c r="N125" t="n">
         <v>1</v>
@@ -10563,16 +10563,16 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.56035</v>
+        <v>0.48414</v>
       </c>
       <c r="G126" t="n">
-        <v>0.757789906638563</v>
+        <v>0.689255522683565</v>
       </c>
       <c r="H126" t="n">
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>2.95014</v>
+        <v>2.95</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M126" t="n">
-        <v>0.9404400000000001</v>
+        <v>0.76938</v>
       </c>
       <c r="N126" t="n">
         <v>1</v>
@@ -10648,16 +10648,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.56035</v>
+        <v>0.48414</v>
       </c>
       <c r="G127" t="n">
-        <v>0.757789906638563</v>
+        <v>0.689255522683565</v>
       </c>
       <c r="H127" t="n">
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>2.95014</v>
+        <v>2.95</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.57202</v>
+        <v>0.4928</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9404400000000001</v>
+        <v>0.76938</v>
       </c>
       <c r="N127" t="n">
         <v>1</v>
@@ -10736,7 +10736,7 @@
         <v>0.02622</v>
       </c>
       <c r="G128" t="n">
-        <v>0.037467836068043</v>
+        <v>0.0374717393890452</v>
       </c>
       <c r="H128" t="n">
         <v>0.171328671328671</v>
@@ -10817,7 +10817,7 @@
         <v>0.02622</v>
       </c>
       <c r="G129" t="n">
-        <v>0.037467836068043</v>
+        <v>0.0374717393890452</v>
       </c>
       <c r="H129" t="n">
         <v>0.171328671328671</v>
@@ -11056,7 +11056,7 @@
         <v>0.12</v>
       </c>
       <c r="G132" t="n">
-        <v>0.158438596491228</v>
+        <v>0.158421052631579</v>
       </c>
       <c r="H132" t="n">
         <v>0.52</v>
@@ -11133,7 +11133,7 @@
         <v>0.12</v>
       </c>
       <c r="G133" t="n">
-        <v>0.158438596491228</v>
+        <v>0.158421052631579</v>
       </c>
       <c r="H133" t="n">
         <v>0.52</v>
@@ -11210,7 +11210,7 @@
         <v>0.11</v>
       </c>
       <c r="G134" t="n">
-        <v>0.142084425391283</v>
+        <v>0.14207094215709</v>
       </c>
       <c r="H134" t="n">
         <v>0.5600000000000001</v>
@@ -11287,7 +11287,7 @@
         <v>0.11</v>
       </c>
       <c r="G135" t="n">
-        <v>0.142084425391283</v>
+        <v>0.14207094215709</v>
       </c>
       <c r="H135" t="n">
         <v>0.5600000000000001</v>
@@ -11762,16 +11762,16 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.65197</v>
+        <v>0.5556</v>
       </c>
       <c r="G141" t="n">
-        <v>0.859311857617891</v>
+        <v>0.753464069956935</v>
       </c>
       <c r="H141" t="n">
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3.19142</v>
+        <v>3.10502</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -11780,13 +11780,13 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0.6886100000000001</v>
+        <v>0.58368</v>
       </c>
       <c r="M141" t="n">
-        <v>1.08987</v>
+        <v>0.87378</v>
       </c>
       <c r="N141" t="n">
-        <v>1.2661</v>
+        <v>0.99163</v>
       </c>
       <c r="O141" t="n">
         <v>1822057</v>
@@ -11847,16 +11847,16 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.65197</v>
+        <v>0.5556</v>
       </c>
       <c r="G142" t="n">
-        <v>0.859311857617891</v>
+        <v>0.753464069956935</v>
       </c>
       <c r="H142" t="n">
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3.19142</v>
+        <v>3.10502</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -11865,13 +11865,13 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0.6886100000000001</v>
+        <v>0.58368</v>
       </c>
       <c r="M142" t="n">
-        <v>1.08987</v>
+        <v>0.87378</v>
       </c>
       <c r="N142" t="n">
-        <v>1.2661</v>
+        <v>0.99163</v>
       </c>
       <c r="O142" t="n">
         <v>1822057</v>
@@ -11932,16 +11932,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.65197</v>
+        <v>0.5556</v>
       </c>
       <c r="G143" t="n">
-        <v>0.859311857617891</v>
+        <v>0.753464069956935</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3.19142</v>
+        <v>3.10502</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -11950,13 +11950,13 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.6886100000000001</v>
+        <v>0.58368</v>
       </c>
       <c r="M143" t="n">
-        <v>1.08987</v>
+        <v>0.87378</v>
       </c>
       <c r="N143" t="n">
-        <v>1.2661</v>
+        <v>0.99163</v>
       </c>
       <c r="O143" t="n">
         <v>1822057</v>
@@ -12017,16 +12017,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.65197</v>
+        <v>0.5556</v>
       </c>
       <c r="G144" t="n">
-        <v>0.859311857617891</v>
+        <v>0.753464069956935</v>
       </c>
       <c r="H144" t="n">
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3.19142</v>
+        <v>3.10502</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -12035,13 +12035,13 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.6886100000000001</v>
+        <v>0.58368</v>
       </c>
       <c r="M144" t="n">
-        <v>1.08987</v>
+        <v>0.87378</v>
       </c>
       <c r="N144" t="n">
-        <v>1.2661</v>
+        <v>0.99163</v>
       </c>
       <c r="O144" t="n">
         <v>1822057</v>
@@ -12105,7 +12105,7 @@
         <v>0.03147</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0433867316971553</v>
+        <v>0.0433908739969944</v>
       </c>
       <c r="H145" t="n">
         <v>0.171328671328671</v>
@@ -12186,7 +12186,7 @@
         <v>0.03147</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0433867316971553</v>
+        <v>0.0433908739969944</v>
       </c>
       <c r="H146" t="n">
         <v>0.171328671328671</v>
@@ -12579,7 +12579,7 @@
         <v>0.12</v>
       </c>
       <c r="G151" t="n">
-        <v>0.14865313279243</v>
+        <v>0.148631090252688</v>
       </c>
       <c r="H151" t="n">
         <v>0.5600000000000001</v>
@@ -12656,7 +12656,7 @@
         <v>0.12</v>
       </c>
       <c r="G152" t="n">
-        <v>0.14865313279243</v>
+        <v>0.148631090252688</v>
       </c>
       <c r="H152" t="n">
         <v>0.5600000000000001</v>
@@ -13131,10 +13131,10 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.86947</v>
+        <v>0.71832</v>
       </c>
       <c r="G158" t="n">
-        <v>1.13054442624198</v>
+        <v>0.964464563169963</v>
       </c>
       <c r="H158" t="n">
         <v>4</v>
@@ -13149,13 +13149,13 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>0.89397</v>
+        <v>0.73606</v>
       </c>
       <c r="M158" t="n">
-        <v>1.52108</v>
+        <v>1.15243</v>
       </c>
       <c r="N158" t="n">
-        <v>1.81601</v>
+        <v>1.32497</v>
       </c>
       <c r="O158" t="n">
         <v>1822057</v>
@@ -13216,10 +13216,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.86947</v>
+        <v>0.71832</v>
       </c>
       <c r="G159" t="n">
-        <v>1.13054442624198</v>
+        <v>0.964464563169963</v>
       </c>
       <c r="H159" t="n">
         <v>4</v>
@@ -13234,13 +13234,13 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0.89397</v>
+        <v>0.73606</v>
       </c>
       <c r="M159" t="n">
-        <v>1.52108</v>
+        <v>1.15243</v>
       </c>
       <c r="N159" t="n">
-        <v>1.81601</v>
+        <v>1.32497</v>
       </c>
       <c r="O159" t="n">
         <v>1822057</v>
@@ -13301,10 +13301,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.86947</v>
+        <v>0.71832</v>
       </c>
       <c r="G160" t="n">
-        <v>1.13054442624198</v>
+        <v>0.964464563169963</v>
       </c>
       <c r="H160" t="n">
         <v>4</v>
@@ -13319,13 +13319,13 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0.89397</v>
+        <v>0.73606</v>
       </c>
       <c r="M160" t="n">
-        <v>1.52108</v>
+        <v>1.15243</v>
       </c>
       <c r="N160" t="n">
-        <v>1.81601</v>
+        <v>1.32497</v>
       </c>
       <c r="O160" t="n">
         <v>1822057</v>
@@ -13386,10 +13386,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.86947</v>
+        <v>0.71832</v>
       </c>
       <c r="G161" t="n">
-        <v>1.13054442624198</v>
+        <v>0.964464563169963</v>
       </c>
       <c r="H161" t="n">
         <v>4</v>
@@ -13404,13 +13404,13 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0.89397</v>
+        <v>0.73606</v>
       </c>
       <c r="M161" t="n">
-        <v>1.52108</v>
+        <v>1.15243</v>
       </c>
       <c r="N161" t="n">
-        <v>1.81601</v>
+        <v>1.32497</v>
       </c>
       <c r="O161" t="n">
         <v>1822057</v>
@@ -13948,7 +13948,7 @@
         <v>0.13</v>
       </c>
       <c r="G168" t="n">
-        <v>0.148992673547774</v>
+        <v>0.148977890420792</v>
       </c>
       <c r="H168" t="n">
         <v>0.47</v>
@@ -14025,7 +14025,7 @@
         <v>0.13</v>
       </c>
       <c r="G169" t="n">
-        <v>0.148992673547774</v>
+        <v>0.148977890420792</v>
       </c>
       <c r="H169" t="n">
         <v>0.47</v>
@@ -14500,10 +14500,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1.22751</v>
+        <v>0.9663</v>
       </c>
       <c r="G175" t="n">
-        <v>1.53738034830369</v>
+        <v>1.218900331202</v>
       </c>
       <c r="H175" t="n">
         <v>4</v>
@@ -14518,13 +14518,13 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>1.15634</v>
+        <v>0.91889</v>
       </c>
       <c r="M175" t="n">
-        <v>2.3852</v>
+        <v>1.62028</v>
       </c>
       <c r="N175" t="n">
-        <v>3.05609</v>
+        <v>1.91247</v>
       </c>
       <c r="O175" t="n">
         <v>1822057</v>
@@ -14585,10 +14585,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1.22751</v>
+        <v>0.9663</v>
       </c>
       <c r="G176" t="n">
-        <v>1.53738034830369</v>
+        <v>1.218900331202</v>
       </c>
       <c r="H176" t="n">
         <v>4</v>
@@ -14603,13 +14603,13 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>1.15634</v>
+        <v>0.91889</v>
       </c>
       <c r="M176" t="n">
-        <v>2.3852</v>
+        <v>1.62028</v>
       </c>
       <c r="N176" t="n">
-        <v>3.05609</v>
+        <v>1.91247</v>
       </c>
       <c r="O176" t="n">
         <v>1822057</v>
@@ -14670,10 +14670,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1.22751</v>
+        <v>0.9663</v>
       </c>
       <c r="G177" t="n">
-        <v>1.53738034830369</v>
+        <v>1.218900331202</v>
       </c>
       <c r="H177" t="n">
         <v>4</v>
@@ -14688,13 +14688,13 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>1.15634</v>
+        <v>0.91889</v>
       </c>
       <c r="M177" t="n">
-        <v>2.3852</v>
+        <v>1.62028</v>
       </c>
       <c r="N177" t="n">
-        <v>3.05609</v>
+        <v>1.91247</v>
       </c>
       <c r="O177" t="n">
         <v>1822057</v>
@@ -14755,10 +14755,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1.22751</v>
+        <v>0.9663</v>
       </c>
       <c r="G178" t="n">
-        <v>1.53738034830369</v>
+        <v>1.218900331202</v>
       </c>
       <c r="H178" t="n">
         <v>4</v>
@@ -14773,13 +14773,13 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>1.15634</v>
+        <v>0.91889</v>
       </c>
       <c r="M178" t="n">
-        <v>2.3852</v>
+        <v>1.62028</v>
       </c>
       <c r="N178" t="n">
-        <v>3.05609</v>
+        <v>1.91247</v>
       </c>
       <c r="O178" t="n">
         <v>1822057</v>
@@ -15317,7 +15317,7 @@
         <v>0.12</v>
       </c>
       <c r="G185" t="n">
-        <v>0.158923436401589</v>
+        <v>0.1588806973191</v>
       </c>
       <c r="H185" t="n">
         <v>0.93</v>
@@ -15394,7 +15394,7 @@
         <v>0.12</v>
       </c>
       <c r="G186" t="n">
-        <v>0.158923436401589</v>
+        <v>0.1588806973191</v>
       </c>
       <c r="H186" t="n">
         <v>0.93</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.497139534883721</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.414</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1.353</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.09610526315789469</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.29445</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.18701</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.09610526315789469</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.29445</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.18701</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1.32715</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.62445923520845</v>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2.4702</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3.11762</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>1.32715</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.62445923520845</v>
+      </c>
+      <c r="H193" t="n">
+        <v>4</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2.4702</v>
+      </c>
+      <c r="N193" t="n">
+        <v>3.11762</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1.32715</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.62445923520845</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+      <c r="I194" t="n">
+        <v>4</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2.4702</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3.11762</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>1.32715</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.62445923520845</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+      <c r="I195" t="n">
+        <v>4</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2.4702</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3.11762</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.03497</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0561551655891279</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.276223776223776</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.1547</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.05175</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.09852</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.13259</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.03497</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0561551655891279</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.276223776223776</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.1547</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.05175</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.09852</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.13259</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.0444035087719298</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.0573</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.0444035087719298</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.0573</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.205578947368421</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.48365</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.34411</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.4334</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.205578947368421</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.48365</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.34411</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.4334</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.150635083284012</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.2081</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.3552</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.150635083284012</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.2081</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.3552</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.120122807017544</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.3756</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.20453</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.24592</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Whangaehu at u/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.120122807017544</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.3756</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.20453</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.24592</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1822057</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5628629</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
